--- a/biology/Histoire de la zoologie et de la botanique/Jean-Pierre_Duhard/Jean-Pierre_Duhard.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean-Pierre_Duhard/Jean-Pierre_Duhard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Pierre Duhard, né le 8 août 1942 à Libourne et mort le 5 avril 2022 à Saint-Jean-de-Luz[1], est un gynécologue et anthropologue français, auteur de plusieurs ouvrages d'anthropologie. Il a reçu deux prix pour ses travaux en 1990 et 1992.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Pierre Duhard, né le 8 août 1942 à Libourne et mort le 5 avril 2022 à Saint-Jean-de-Luz, est un gynécologue et anthropologue français, auteur de plusieurs ouvrages d'anthropologie. Il a reçu deux prix pour ses travaux en 1990 et 1992.
 </t>
         </is>
       </c>
@@ -513,14 +525,89 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Médecine
-Il passe son bac Philo avec mention au lycée Montaigne de Bordeaux en 1960 et commence des études de médecine à l'université de Bordeaux. En 1964, il est externe des hôpitaux. Il obtient son doctorat de médecine à Bordeaux en 1968 avec une thèse sur le traitement hormonal de la stérilité féminine[2],[3] (mention très honorable avec échanges). Il passe en 1970 le CES de Gynécologie-Obstétrique.[réf. nécessaire] En 1994 il est médecin gynécologue à la polyclinique Côte Basque Sud, Saint-Jean-de-Luz[2] ; il exerce en libéral jusqu'en 2007.[réf. nécessaire]
-Anthropologie et Préhistoire
-Il passe une maîtrise d'anthropologie en 1986[réf. nécessaire] et un doctorat d'anthropologie et préhistoire en 1989 à Bordeaux I[2] (mention très honorable, félicitations du jury et échanges).
+          <t>Médecine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il passe son bac Philo avec mention au lycée Montaigne de Bordeaux en 1960 et commence des études de médecine à l'université de Bordeaux. En 1964, il est externe des hôpitaux. Il obtient son doctorat de médecine à Bordeaux en 1968 avec une thèse sur le traitement hormonal de la stérilité féminine, (mention très honorable avec échanges). Il passe en 1970 le CES de Gynécologie-Obstétrique.[réf. nécessaire] En 1994 il est médecin gynécologue à la polyclinique Côte Basque Sud, Saint-Jean-de-Luz ; il exerce en libéral jusqu'en 2007.[réf. nécessaire]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jean-Pierre_Duhard</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Pierre_Duhard</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Anthropologie et Préhistoire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il passe une maîtrise d'anthropologie en 1986[réf. nécessaire] et un doctorat d'anthropologie et préhistoire en 1989 à Bordeaux I (mention très honorable, félicitations du jury et échanges).
 Il passe un DU d'arabe dialectal maghrébin (Maroc) en 1998.[réf. nécessaire]
-Découvertes
-Figurations féminines paléolithiques
-Figure féminine debout de la grotte de la Magdeleine-des-Albis (gravures sur plaquette et pariétale, Penne, Tarn)[4]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jean-Pierre_Duhard</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Pierre_Duhard</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Découvertes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Figurations féminines paléolithiques
+Figure féminine debout de la grotte de la Magdeleine-des-Albis (gravures sur plaquette et pariétale, Penne, Tarn)
 Figure féminine couchée de la grotte de Commarque (sculpture pariétale, Les Eyzies, Dordogne)
 Figure féminine gravée de Bruniquel (gravure mobilière, MAN)
 Figure féminine de la grotte de la Vache (bas-relief mobilier, MAN)
@@ -533,79 +620,288 @@
 Diverses
 nécropole de l'âge du fer dans le nord-est du Mali (région de Nâq). Plusieurs publications sur ce thème.
 ateliers néolithiques de confection de perles en pierre dure dans le nord-est du Mali (publié).
-atelier néolithique de confection d'éléments de parure en coquille d'œuf d'autruche en Algérie (publié).
-Récompenses
-Prix Théramex Paris (Gynécologie) en 1990[5] et Prix Raymond Riquet Bordeaux  (Préhistoire) en 1992[5].
+atelier néolithique de confection d'éléments de parure en coquille d'œuf d'autruche en Algérie (publié).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean-Pierre_Duhard</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Pierre_Duhard</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prix Théramex Paris (Gynécologie) en 1990 et Prix Raymond Riquet Bordeaux  (Préhistoire) en 1992.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Jean-Pierre_Duhard</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jean-Pierre_Duhard</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean-Pierre_Duhard</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Pierre_Duhard</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Médecine
-[1968] Jean-Pierre Duhard, Utilisation en gynécologie des gonadotrophines extraites de l'urine de femmes (HMG-HCG), à propos de 27 observations (thèse de médecine), 1968.
-Préhistoire
-[Bisio, Bisio &amp; Duhard 1988] Antoine Bisio, Thierry Bisio et Jean-Pierre Duhard, « Nouvelles découvertes à la grotte de la Magdeleine des Albis », Revue du département du Tarn, no 132,‎ 1988.
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Médecine</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jean-Pierre Duhard, Utilisation en gynécologie des gonadotrophines extraites de l'urine de femmes (HMG-HCG), à propos de 27 observations (thèse de médecine), 1968.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jean-Pierre_Duhard</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Pierre_Duhard</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Préhistoire</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[Bisio, Bisio &amp; Duhard 1988] Antoine Bisio, Thierry Bisio et Jean-Pierre Duhard, « Nouvelles découvertes à la grotte de la Magdeleine des Albis », Revue du département du Tarn, no 132,‎ 1988.
 [Duhard &amp; Roussot 1988] Jean-Pierre Duhard et Alain Roussot, « Le gland pénien sculpté de Laussel (Dordogne) », Bulletin de la Société préhistorique française, vol. 85, no 2,‎ 1988, p. 41-44 (lire en ligne [sur persee]).
-[1989] Le réalisme physiologique des figurations féminines du Paléolithique supérieur en France (thèse de doctorat en Anthropologie-préhistoire, dir. Bernard Vandermeersch, univ. de Bordeaux I), Grenoble, Atelier national de reproduction des thèses, 1989, 622 p..
-[1990] « Les figurations humaines de Laugerie-Basse », Paléo, no 2,‎ 1990, p. 217-228 (lire en ligne [sur persee]).
-[1991] « À propos de gravures féminines sur plaquettes calcaires prétendues de Teyjat et supposées magdaléniennes », Paléo, no 3,‎ 1991, p. 131-137 (lire en ligne [sur persee]).
-[1992] « Les figurations humaines sculptées et gravées du Mas d'Azil (Ariège) », Gallia Préhistoire, no 34,‎ 1992, p. 289-301 (lire en ligne [sur persee]).
-[1992] « Les groupements humains dans l'art mobilier paléolithique français », Bulletin de la Société préhistorique française, vol. 89, no 6,‎ 1992, p. 172-183 (lire en ligne [sur persee]).
-[1992] « Les figures féminines en bas-relief de l'abri Bourdois à Angles-sur-l'Anglin (Vienne). Essai de lecture morphologique », Paléo, no 4,‎ 1992, p. 161-173 (lire en ligne [sur persee]).
-[1993] Réalisme de l'image féminine paléolithique  (préf. Henri Delporte, postface Denise de Sonneville-Bordes) (thèse de doctorat en Sciences), Paris, CNRS éditions, coll. « Cahiers du Quaternaire » (no 19), 1993, 244 p., sur books.google.fr (présentation en ligne, lire en ligne).
-[1993] « Étude comparative des statuettes féminines de Sireuil et Tursac (Dordogne) », Gallia Préhistoire, vol. 35,‎ 1993, p. 283-291 (lire en ligne [sur persee]).
-[1995] « De la confusion entre morphologie et géométrie dans les figurations féminines gravettiennes et du supposé style gravettien », Bulletin de la Société préhistorique française, vol. 92, no 3,‎ 1995, p. 302-312 (lire en ligne [sur persee]).
-[1996] Réalisme de l'image masculine paléolithique  (préf. Yves Coppens), Grenoble, éd. J. Millon, coll. « L'Homme des origines », 1996, 246 p., sur books.google.fr (ISBN 2-84137-004-6, lire en ligne).
+ Le réalisme physiologique des figurations féminines du Paléolithique supérieur en France (thèse de doctorat en Anthropologie-préhistoire, dir. Bernard Vandermeersch, univ. de Bordeaux I), Grenoble, Atelier national de reproduction des thèses, 1989, 622 p..
+ « Les figurations humaines de Laugerie-Basse », Paléo, no 2,‎ 1990, p. 217-228 (lire en ligne [sur persee]).
+ « À propos de gravures féminines sur plaquettes calcaires prétendues de Teyjat et supposées magdaléniennes », Paléo, no 3,‎ 1991, p. 131-137 (lire en ligne [sur persee]).
+ « Les figurations humaines sculptées et gravées du Mas d'Azil (Ariège) », Gallia Préhistoire, no 34,‎ 1992, p. 289-301 (lire en ligne [sur persee]).
+ « Les groupements humains dans l'art mobilier paléolithique français », Bulletin de la Société préhistorique française, vol. 89, no 6,‎ 1992, p. 172-183 (lire en ligne [sur persee]).
+ « Les figures féminines en bas-relief de l'abri Bourdois à Angles-sur-l'Anglin (Vienne). Essai de lecture morphologique », Paléo, no 4,‎ 1992, p. 161-173 (lire en ligne [sur persee]).
+ Réalisme de l'image féminine paléolithique  (préf. Henri Delporte, postface Denise de Sonneville-Bordes) (thèse de doctorat en Sciences), Paris, CNRS éditions, coll. « Cahiers du Quaternaire » (no 19), 1993, 244 p., sur books.google.fr (présentation en ligne, lire en ligne).
+ « Étude comparative des statuettes féminines de Sireuil et Tursac (Dordogne) », Gallia Préhistoire, vol. 35,‎ 1993, p. 283-291 (lire en ligne [sur persee]).
+ « De la confusion entre morphologie et géométrie dans les figurations féminines gravettiennes et du supposé style gravettien », Bulletin de la Société préhistorique française, vol. 92, no 3,‎ 1995, p. 302-312 (lire en ligne [sur persee]).
+ Réalisme de l'image masculine paléolithique  (préf. Yves Coppens), Grenoble, éd. J. Millon, coll. « L'Homme des origines », 1996, 246 p., sur books.google.fr (ISBN 2-84137-004-6, lire en ligne).
 [Duhard &amp; Tosello 1996] Jean-Pierre Duhard et Gilles Tosello, « Relecture du bloc aux humains de l'abri de la Vallée du Roc (commune de Sers, Charente) », Bulletin de la Société préhistorique française, vol. 93, no 4,‎ 1996, p. 528-533 (lire en ligne [sur persee]).
-[2000] « La céramique de la vallée de Nâq dans le Mali nord-oriental », Le Saharien, vol. 155, no 4,‎ 2000, p. 30-35 (présentation en ligne).
-[2002] « Quelques aspects techniques dans la confection des "perles " néolithiques en pierre du Sahara », Bulletin de la Société préhistorique française, vol. 99, no 2,‎ 2002, p. 357-365 (lire en ligne [sur persee]).
-[2009] « Une nouvelle représentation féminine à la Madeleine (Tursac, Dordogne) », Paléo, no 21,‎ 2009/2010, p. 127-134 (lire en ligne [sur journals.openedition.org]).
+ « La céramique de la vallée de Nâq dans le Mali nord-oriental », Le Saharien, vol. 155, no 4,‎ 2000, p. 30-35 (présentation en ligne).
+ « Quelques aspects techniques dans la confection des "perles " néolithiques en pierre du Sahara », Bulletin de la Société préhistorique française, vol. 99, no 2,‎ 2002, p. 357-365 (lire en ligne [sur persee]).
+ « Une nouvelle représentation féminine à la Madeleine (Tursac, Dordogne) », Paléo, no 21,‎ 2009/2010, p. 127-134 (lire en ligne [sur journals.openedition.org]).
 [Duhard &amp; Roussot 2011] Jean-Pierre Duhard et Alain Roussot, « Une vulve anatomique sur un bâton percé magdalénien du Roc-de-Marcamps (Prignac-et-Marcamps, Gironde) », Bulletin de la Société préhistorique française, vol. 108, no 1,‎ 2011, p. 141-143 (lire en ligne [sur persee]).
 [Duhard &amp; Soleihavoup 2013] Jean-Pierre Duhard et François Soleihavoup (préf. Denis Vialou, postface Yves Coppens), Érotisme et sexualité dans l'art rupestre saharien, éd. L'Harmattan, 2013 (ISBN 978-2-336-00723-6, présentation en ligne).
-[2013] « Gobero au Niger, quand le Ténéré était vert », sur atramenta.net, 13 mai 2013.
-[2017] Jean-Pierre Duhard, Brigitte Delluc et Gilles Delluc (préf. Yves Coppens), Représentations de l'intimité de la femme dans l'art paléolithique en France, éd. ERAUL (no 136), 2017, 192 p. (ISBN 978-2930495224, présentation en ligne).
-Histoire de l'Afrique du Nord
-[2005] Jean-Pierre Duhard (préf. Louis Le Prieur), L'histoire du spahi Ravin - Une vocation saharienne, Biarritz, éd. Atlantica, 2005, 258 p. (ISBN 2-84394-802-9).
-[2013] Jean-Pierre Duhard, Le rescapé du Ténéré, L'Harmattan, 2013, 198 p. (ISBN 978-2-336-29018-8, présentation en ligne).
-[2013] Jean-Pierre Duhard, La soumission des Touareg de l'Ahaggar 1830-1922, L'Harmattan, coll. « Racines du Présent », 2013, 534 p. (ISBN 978-2-336-29058-4, présentation en ligne).
-Autour de la Seconde Guerre mondiale
-[2013] Jean-Pierre Duhard, C'était un semblant de guerre (1939-1945), L'Harmattan, coll. « Mémoires du XXe siècle », 2013, 230 p. (ISBN 978-2-343-00777-9, présentation en ligne).
-[2015] Jean-Pierre Duhard, Écrits de guerre et de captivité, t. 1 : La guerre (ISBN 978-2-343-06197-9, présentation en ligne).
-[2015] Jean-Pierre Duhard, Écrits de guerre et de captivité, t. 2 : Les prisonniers (ISBN 978-2-336-30325-3, présentation en ligne).
-[Marchet &amp; Duhard 2016] Odette Marchet et Jean-Pierre Duhard, Une famille lorraine dans la grande guerre - Journal de Lina Welter (1914-1918), L'Harmattan, 2016, 346 p. (ISBN 9782343093710, présentation en ligne).
-Romans
-[1973] Jean-Pierre Duhard, L'assassin de la Salle 7 (roman), Paris, la Pensée universelle, 1973, 184 p. (présentation en ligne).
-[2014] Jean-Pierre Duhard (préf. Charles Exbrayat), Petits meurtres à l'hôpital (roman), L'Harmattan, 2014, 208 p. (ISBN 978-2-343-04179-7, présentation en ligne).
-Autres
-[2006] Jean-Pierre Duhard (préf. Yves Coppens et A. Brillat-Savarin), Secrets de cuisine de mamie Germaine - recettes de Charente, Gironde et Périgord, Biarritz, éd. Atlantica, 2006, 198 p. (ISBN 978-2-35165-043-1, présentation en ligne).
-[2014] Jean-Pierre Duhard, C'est long une vie pour se souvenir de tout - Roger et Germaine, 1900-1952, L'Harmattan, coll. « Graveurs de Mémoire », 2014, 442 p. (ISBN 978-2-343-00987-2, présentation en ligne).
+ « Gobero au Niger, quand le Ténéré était vert », sur atramenta.net, 13 mai 2013.
+ Jean-Pierre Duhard, Brigitte Delluc et Gilles Delluc (préf. Yves Coppens), Représentations de l'intimité de la femme dans l'art paléolithique en France, éd. ERAUL (no 136), 2017, 192 p. (ISBN 978-2930495224, présentation en ligne).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jean-Pierre_Duhard</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Pierre_Duhard</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Histoire de l'Afrique du Nord</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jean-Pierre Duhard (préf. Louis Le Prieur), L'histoire du spahi Ravin - Une vocation saharienne, Biarritz, éd. Atlantica, 2005, 258 p. (ISBN 2-84394-802-9).
+ Jean-Pierre Duhard, Le rescapé du Ténéré, L'Harmattan, 2013, 198 p. (ISBN 978-2-336-29018-8, présentation en ligne).
+ Jean-Pierre Duhard, La soumission des Touareg de l'Ahaggar 1830-1922, L'Harmattan, coll. « Racines du Présent », 2013, 534 p. (ISBN 978-2-336-29058-4, présentation en ligne).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jean-Pierre_Duhard</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Pierre_Duhard</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Autour de la Seconde Guerre mondiale</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jean-Pierre Duhard, C'était un semblant de guerre (1939-1945), L'Harmattan, coll. « Mémoires du XXe siècle », 2013, 230 p. (ISBN 978-2-343-00777-9, présentation en ligne).
+ Jean-Pierre Duhard, Écrits de guerre et de captivité, t. 1 : La guerre (ISBN 978-2-343-06197-9, présentation en ligne).
+ Jean-Pierre Duhard, Écrits de guerre et de captivité, t. 2 : Les prisonniers (ISBN 978-2-336-30325-3, présentation en ligne).
+[Marchet &amp; Duhard 2016] Odette Marchet et Jean-Pierre Duhard, Une famille lorraine dans la grande guerre - Journal de Lina Welter (1914-1918), L'Harmattan, 2016, 346 p. (ISBN 9782343093710, présentation en ligne).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jean-Pierre_Duhard</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Pierre_Duhard</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jean-Pierre Duhard, L'assassin de la Salle 7 (roman), Paris, la Pensée universelle, 1973, 184 p. (présentation en ligne).
+ Jean-Pierre Duhard (préf. Charles Exbrayat), Petits meurtres à l'hôpital (roman), L'Harmattan, 2014, 208 p. (ISBN 978-2-343-04179-7, présentation en ligne).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Jean-Pierre_Duhard</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Pierre_Duhard</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jean-Pierre Duhard (préf. Yves Coppens et A. Brillat-Savarin), Secrets de cuisine de mamie Germaine - recettes de Charente, Gironde et Périgord, Biarritz, éd. Atlantica, 2006, 198 p. (ISBN 978-2-35165-043-1, présentation en ligne).
+ Jean-Pierre Duhard, C'est long une vie pour se souvenir de tout - Roger et Germaine, 1900-1952, L'Harmattan, coll. « Graveurs de Mémoire », 2014, 442 p. (ISBN 978-2-343-00987-2, présentation en ligne).
 Directeur de publication
-Mélanges Jean Gaussen (2004)[6]. Société Préhistorique de l'Ariège, 1 vol. (28 auteurs de 8 nationalités).
+Mélanges Jean Gaussen (2004). Société Préhistorique de l'Ariège, 1 vol. (28 auteurs de 8 nationalités).
 </t>
         </is>
       </c>
